--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P10_trail11 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P10_trail11 Features.xlsx
@@ -5335,7 +5335,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z32"/>
+  <dimension ref="A1:X32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5346,29 +5346,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="21" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5389,115 +5387,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -5514,72 +5502,66 @@
         <v>7.455408931976882e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.9403161017557606</v>
+        <v>2.835242467556834e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-0.1538851893728101</v>
+        <v>2.534582500622756e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>2.835242467556834e-07</v>
+        <v>-0.06341821742344621</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.534582500622756e-06</v>
+        <v>0.1024073442969867</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.06341821742344621</v>
+        <v>0.01448528557162896</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1024073442969867</v>
+        <v>1.918365031770171</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.01448528557162896</v>
+        <v>2.418932797244041</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.94107223997732</v>
+        <v>4.704257353860567</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.418932797244041</v>
+        <v>4.456330782806293e-17</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.704257353860567</v>
+        <v>3405616347.539422</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>4.456330782806293e-17</v>
+        <v>3.535938389639344e-08</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>3405616347.539422</v>
+        <v>516.8551687338817</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>3.535938389639344e-08</v>
+        <v>9.621984014160081e-05</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>516.8551687338817</v>
+        <v>6.239521496557453</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>9.621984014160081e-05</v>
+        <v>1.704712466273874</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>6.239521496557453</v>
+        <v>0.003745995071299755</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.704712466273874</v>
+        <v>3.935433854386721</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.003745995071299755</v>
+        <v>0.960589185527619</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.935433854386721</v>
+        <v>1.221733814555636</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.960589185527619</v>
+        <v>82</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.221733814555636</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>82</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>1.435143553754361</v>
       </c>
     </row>
@@ -5594,72 +5576,66 @@
         <v>7.70989263536372e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.9122493732884532</v>
+        <v>2.729624926537371e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.2844425062314984</v>
+        <v>2.530133249386637e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>2.729624926537371e-07</v>
+        <v>-0.05492023180024987</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.530133249386637e-06</v>
+        <v>0.08368885350913435</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.05492023180024987</v>
+        <v>0.01001274150594773</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.08368885350913435</v>
+        <v>1.910367822955558</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.01001274150594773</v>
+        <v>2.672080593964975</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.934143476560028</v>
+        <v>4.970978888791388</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.672080593964975</v>
+        <v>5.579144865987358e-17</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.970978888791388</v>
+        <v>2670865226.347466</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>5.579144865987358e-17</v>
+        <v>4.493999278754297e-08</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>2670865226.347466</v>
+        <v>397.9894738331553</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>4.493999278754297e-08</v>
+        <v>0.000107209002514823</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>397.9894738331553</v>
+        <v>6.920068861731742</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.000107209002514823</v>
+        <v>1.453673723513896</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>6.920068861731742</v>
+        <v>0.005133955353684589</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.453673723513896</v>
+        <v>3.769480679909585</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.005133955353684589</v>
+        <v>0.9605161612984766</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.769480679909585</v>
+        <v>1.288953567761473</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9605161612984766</v>
+        <v>76</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.288953567761473</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>76</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>1.282885237637353</v>
       </c>
     </row>
@@ -5674,72 +5650,66 @@
         <v>8.001536582411158e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.8652949511810784</v>
+        <v>2.800743185084051e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.4205694351496483</v>
+        <v>2.526004986480155e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>2.800743185084051e-07</v>
+        <v>-0.05095809952262004</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.526004986480155e-06</v>
+        <v>0.07779915085493319</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.05095809952262004</v>
+        <v>0.008648709989643354</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.07779915085493319</v>
+        <v>1.921514683113408</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.008648709989643354</v>
+        <v>2.746129029701384</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.937921244318178</v>
+        <v>4.724012394821097</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.746129029701384</v>
+        <v>6.1777370484822e-17</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.724012394821097</v>
+        <v>2471675058.854886</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>6.1777370484822e-17</v>
+        <v>4.879962294925664e-08</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>2471675058.854886</v>
+        <v>377.4089277405892</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>4.879962294925664e-08</v>
+        <v>0.0001232087332921339</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>377.4089277405892</v>
+        <v>9.398874749940598</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001232087332921339</v>
+        <v>1.180354784185212</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.398874749940598</v>
+        <v>0.01088411738577057</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.180354784185212</v>
+        <v>3.504423301582025</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01088411738577057</v>
+        <v>0.9624620317898059</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.504423301582025</v>
+        <v>1.255458480562877</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9624620317898059</v>
+        <v>65</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.255458480562877</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>65</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>1.284862104630484</v>
       </c>
     </row>
@@ -5754,72 +5724,66 @@
         <v>8.298828900796254e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.8171561914763271</v>
+        <v>2.874071582408135e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.5452248161582594</v>
+        <v>2.521874970994379e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>2.874071582408135e-07</v>
+        <v>-0.05098345795242092</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.521874970994379e-06</v>
+        <v>0.07416040896428079</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.05098345795242092</v>
+        <v>0.008097965052813088</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.07416040896428079</v>
+        <v>1.920025682169488</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.008097965052813088</v>
+        <v>2.6892330463913</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.933354798821988</v>
+        <v>4.70689207538847</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.6892330463913</v>
+        <v>6.222759189840292e-17</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.70689207538847</v>
+        <v>2549584798.334478</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>6.222759189840292e-17</v>
+        <v>4.732515926780926e-08</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>2549584798.334478</v>
+        <v>404.5031583479624</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>4.732515926780926e-08</v>
+        <v>0.0001228281706417363</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>404.5031583479624</v>
+        <v>10.48806334293506</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001228281706417363</v>
+        <v>1.12287308590996</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>10.48806334293506</v>
+        <v>0.01351103400150556</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.12287308590996</v>
+        <v>3.460125061370754</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01351103400150556</v>
+        <v>0.9626251201385412</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.460125061370754</v>
+        <v>1.261191850466451</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9626251201385412</v>
+        <v>72</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.261191850466451</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>72</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>1.326976561946369</v>
       </c>
     </row>
@@ -5834,72 +5798,66 @@
         <v>8.578474830185809e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.7722444238610624</v>
+        <v>2.942495669658383e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.6520910875462591</v>
+        <v>2.51748573471418e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>2.942495669658383e-07</v>
+        <v>-0.05297320307774296</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>2.51748573471418e-06</v>
+        <v>0.06748623819074</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.05297320307774296</v>
+        <v>0.007359542027022572</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.06748623819074</v>
+        <v>1.915898434174217</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.007359542027022572</v>
+        <v>2.4501149795263</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.931655783259437</v>
+        <v>4.688473189913127</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.4501149795263</v>
+        <v>6.271748027751164e-17</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.688473189913127</v>
+        <v>2525732550.34146</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>6.271748027751164e-17</v>
+        <v>4.777171938305357e-08</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>2525732550.34146</v>
+        <v>400.0951845939354</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>4.777171938305357e-08</v>
+        <v>0.0001071086527113842</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>400.0951845939354</v>
+        <v>8.789487863596099</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001071086527113842</v>
+        <v>1.274405990471389</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>8.789487863596099</v>
+        <v>0.008274689344507338</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.274405990471389</v>
+        <v>3.737780384833306</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.008274689344507338</v>
+        <v>0.9625093408611537</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.737780384833306</v>
+        <v>1.285936923538644</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9625093408611537</v>
+        <v>72</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.285936923538644</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>72</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>1.217327598723515</v>
       </c>
     </row>
@@ -5914,72 +5872,66 @@
         <v>8.831699918901897e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.7318798713790332</v>
+        <v>2.999770492620887e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.7457626945547333</v>
+        <v>2.512818445446598e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>2.999770492620887e-07</v>
+        <v>-0.05401815805862181</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2.512818445446598e-06</v>
+        <v>0.06292743946279095</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.05401815805862181</v>
+        <v>0.006877726462993567</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.06292743946279095</v>
+        <v>1.91674095726413</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.006877726462993567</v>
+        <v>2.572467325269902</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.938790021774387</v>
+        <v>4.505682147373895</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.572467325269902</v>
+        <v>6.790947504672322e-17</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.505682147373895</v>
+        <v>2368116071.566466</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>6.790947504672322e-17</v>
+        <v>5.099910505127438e-08</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>2368116071.566466</v>
+        <v>380.8345519722328</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>5.099910505127438e-08</v>
+        <v>0.0001045857867473193</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>380.8345519722328</v>
+        <v>7.070640931265684</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001045857867473193</v>
+        <v>1.582297430394051</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>7.070640931265684</v>
+        <v>0.005228657971680686</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.582297430394051</v>
+        <v>3.823115430244037</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.005228657971680686</v>
+        <v>0.9596654020704526</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.823115430244037</v>
+        <v>1.212913308410945</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9596654020704526</v>
+        <v>61</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.212913308410945</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>1.111819099480289</v>
       </c>
     </row>
@@ -5994,72 +5946,66 @@
         <v>9.059278465125496e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.6941112295736571</v>
+        <v>3.042466252761624e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.8336177876538242</v>
+        <v>2.507967513831356e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>3.042466252761624e-07</v>
+        <v>-0.05433352519419402</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>2.507967513831356e-06</v>
+        <v>0.05978413090852824</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.05433352519419402</v>
+        <v>0.006526402101872981</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.05978413090852824</v>
+        <v>1.920675128723788</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.006526402101872981</v>
+        <v>2.446286485097249</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.939694622633474</v>
+        <v>4.934981225187588</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>2.446286485097249</v>
+        <v>6.462694237177159e-17</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.934981225187588</v>
+        <v>2565706031.47088</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>6.462694237177159e-17</v>
+        <v>4.716401691722689e-08</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>2565706031.47088</v>
+        <v>425.4293021422652</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>4.716401691722689e-08</v>
+        <v>0.0001194195286300898</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>425.4293021422652</v>
+        <v>7.484249837114342</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001194195286300898</v>
+        <v>1.642479316007441</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>7.484249837114342</v>
+        <v>0.006689164954147318</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.642479316007441</v>
+        <v>3.697933064065023</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.006689164954147318</v>
+        <v>0.9591459766963512</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.697933064065023</v>
+        <v>1.219403133489615</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9591459766963512</v>
+        <v>61</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.219403133489615</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>1.011167670952334</v>
       </c>
     </row>
@@ -6074,72 +6020,66 @@
         <v>9.25846564672909e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.657968887704626</v>
+        <v>3.072848019466176e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.9196385024256646</v>
+        <v>2.50298107086597e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>3.072848019466176e-07</v>
+        <v>-0.05447713167130861</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>2.50298107086597e-06</v>
+        <v>0.05712487135262655</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.05447713167130861</v>
+        <v>0.006231263644722659</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.05712487135262655</v>
+        <v>1.918643352557967</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.006231263644722659</v>
+        <v>2.71255584776064</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.940399975907146</v>
+        <v>5.090923747137587</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>2.71255584776064</v>
+        <v>6.072834341492954e-17</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>5.090923747137587</v>
+        <v>2746384120.490411</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>6.072834341492954e-17</v>
+        <v>4.40669004168378e-08</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>2746384120.490411</v>
+        <v>458.0511660239406</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>4.40669004168378e-08</v>
+        <v>0.0001335065019590953</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>458.0511660239406</v>
+        <v>9.862004510945477</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001335065019590953</v>
+        <v>1.215642700735102</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>9.862004510945477</v>
+        <v>0.01298472662692108</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.215642700735102</v>
+        <v>3.464304770502719</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01298472662692108</v>
+        <v>0.9595757627214692</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.464304770502719</v>
+        <v>1.215793232364745</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9595757627214692</v>
+        <v>46</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.215793232364745</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>1.0606553505691</v>
       </c>
     </row>
@@ -6154,72 +6094,66 @@
         <v>9.428801888414494e-08</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.62277440265615</v>
+        <v>3.093498095628554e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.005341324353635</v>
+        <v>2.497901603320486e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>3.093498095628554e-07</v>
+        <v>-0.05409329914273963</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>2.497901603320486e-06</v>
+        <v>0.05553846907120932</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.05409329914273963</v>
+        <v>0.006010973244640091</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.05553846907120932</v>
+        <v>1.916281057480146</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.006010973244640091</v>
+        <v>2.451582051724531</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.938271919886339</v>
+        <v>4.984532223364882</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>2.451582051724531</v>
+        <v>6.366581782785692e-17</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.984532223364882</v>
+        <v>2592812817.340147</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>6.366581782785692e-17</v>
+        <v>4.657600509585763e-08</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>2592812817.340147</v>
+        <v>428.0048123300153</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>4.657600509585763e-08</v>
+        <v>0.0001469233011637969</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>428.0048123300153</v>
+        <v>11.80992201829437</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001469233011637969</v>
+        <v>1.075705244688503</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>11.80992201829437</v>
+        <v>0.02049201842421966</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.075705244688503</v>
+        <v>3.218921535428587</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.02049201842421966</v>
+        <v>0.9592315246912212</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>3.218921535428587</v>
+        <v>1.177377954973503</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9592315246912212</v>
+        <v>44</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.177377954973503</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>1.087414315276483</v>
       </c>
     </row>
@@ -6234,72 +6168,66 @@
         <v>9.57289119141369e-08</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.586313315941826</v>
+        <v>3.097809108456603e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.091383711255425</v>
+        <v>2.492800767730886e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>3.097809108456603e-07</v>
+        <v>-0.05319645139159722</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>2.492800767730886e-06</v>
+        <v>0.05478478586811367</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.05319645139159722</v>
+        <v>0.005831592662639422</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.05478478586811367</v>
+        <v>1.922106487858387</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.005831592662639422</v>
+        <v>2.380368651664544</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.938921382706372</v>
+        <v>5.488289546210978</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>2.380368651664544</v>
+        <v>8.593352690246214e-17</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>5.488289546210978</v>
+        <v>1919154818.635922</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>8.593352690246214e-17</v>
+        <v>6.302910491180943e-08</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>1919154818.635922</v>
+        <v>316.5065180027931</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>6.302910491180943e-08</v>
+        <v>0.0001228390632839155</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>316.5065180027931</v>
+        <v>10.57877276815536</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001228390632839155</v>
+        <v>1.139662397699735</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>10.57877276815536</v>
+        <v>0.01374697279584492</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.139662397699735</v>
+        <v>3.468120592563163</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.01374697279584492</v>
+        <v>0.9597874944757205</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.468120592563163</v>
+        <v>1.204264903567205</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9597874944757205</v>
+        <v>44</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.204264903567205</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>1.06777942463489</v>
       </c>
     </row>
@@ -6314,72 +6242,66 @@
         <v>9.685356069857524e-08</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.547901617695808</v>
+        <v>3.097809108456603e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.178959780941821</v>
+        <v>2.487724156373007e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>3.097809108456603e-07</v>
+        <v>-0.05222967473077334</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>2.487724156373007e-06</v>
+        <v>0.05458429383215076</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.05222967473077334</v>
+        <v>0.005707621183352707</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.05458429383215076</v>
+        <v>1.92061005694447</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.005707621183352707</v>
+        <v>2.498941061519173</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.93665352027082</v>
+        <v>4.953731240363368</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>2.498941061519173</v>
+        <v>1.054804043690999e-16</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.953731240363368</v>
+        <v>1483735845.458302</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1.054804043690999e-16</v>
+        <v>8.072135505209252e-08</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>1483735845.458302</v>
+        <v>232.2121630009176</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>8.072135505209252e-08</v>
+        <v>0.0001029553594117101</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>232.2121630009176</v>
+        <v>7.764447526144905</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001029553594117101</v>
+        <v>1.349842825581475</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>7.764447526144905</v>
+        <v>0.006206833243468481</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.349842825581475</v>
+        <v>3.725181032793169</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.006206833243468481</v>
+        <v>0.9576397363484555</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>3.725181032793169</v>
+        <v>1.243210601406109</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9576397363484555</v>
+        <v>44</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.243210601406109</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>1.043250777704783</v>
       </c>
     </row>
@@ -6394,72 +6316,66 @@
         <v>9.755874150709907e-08</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.5096373792026105</v>
+        <v>3.097809108456603e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.269347029661044</v>
+        <v>2.482676715726062e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>3.097809108456603e-07</v>
+        <v>-0.05159315962692634</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>2.482676715726062e-06</v>
+        <v>0.05461448379870515</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.05159315962692634</v>
+        <v>0.005644731372924355</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.05461448379870515</v>
+        <v>1.915593961479498</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.005644731372924355</v>
+        <v>2.500117804461829</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.931892352232384</v>
+        <v>4.908522912868067</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>2.500117804461829</v>
+        <v>1.074323367622853e-16</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.908522912868067</v>
+        <v>1452662494.113373</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1.074323367622853e-16</v>
+        <v>8.281701829111428e-08</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>1452662494.113373</v>
+        <v>226.7067597133258</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>8.281701829111428e-08</v>
+        <v>0.0001105542004119339</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>226.7067597133258</v>
+        <v>7.318664965856111</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001105542004119339</v>
+        <v>1.511609118897285</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>7.318664965856111</v>
+        <v>0.005921598814418066</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.511609118897285</v>
+        <v>3.64867059268432</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.005921598814418066</v>
+        <v>0.9586917304390389</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.64867059268432</v>
+        <v>1.276449327095278</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9586917304390389</v>
+        <v>44</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.276449327095278</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.9505144907175691</v>
       </c>
     </row>
@@ -6474,72 +6390,66 @@
         <v>9.782821273035404e-08</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.4729275071977174</v>
+        <v>3.082639023354028e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.362414517365541</v>
+        <v>2.477681347087478e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>3.082639023354028e-07</v>
+        <v>-0.05042845634706901</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>2.477681347087478e-06</v>
+        <v>0.05572247437070607</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.05042845634706901</v>
+        <v>0.005648010931055895</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.05572247437070607</v>
+        <v>1.915583773413545</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.005648010931055895</v>
+        <v>2.512857293814701</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.929546015373782</v>
+        <v>4.837530412585707</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>2.512857293814701</v>
+        <v>1.106086904892134e-16</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>4.837530412585707</v>
+        <v>1424636541.318055</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1.106086904892134e-16</v>
+        <v>8.44040840087983e-08</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>1424636541.318055</v>
+        <v>224.4902119230698</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>8.44040840087983e-08</v>
+        <v>0.0001245337444315978</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>224.4902119230698</v>
+        <v>8.345008232017317</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001245337444315978</v>
+        <v>1.268398437698148</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>8.345008232017317</v>
+        <v>0.00867242565181026</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.268398437698148</v>
+        <v>3.411221509920194</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.00867242565181026</v>
+        <v>0.9584853870006184</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>3.411221509920194</v>
+        <v>1.260058344167847</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9584853870006184</v>
+        <v>73</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.260058344167847</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>73</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.8931211285243008</v>
       </c>
     </row>
@@ -6554,72 +6464,66 @@
         <v>9.78327111611021e-08</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.4331970149545443</v>
+        <v>3.00365011421204e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.451907465776562</v>
+        <v>2.472848801135063e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>3.00365011421204e-07</v>
+        <v>-0.04819006359076942</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>2.472848801135063e-06</v>
+        <v>0.05710596039602241</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.04819006359076942</v>
+        <v>0.005582744559912339</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.05710596039602241</v>
+        <v>1.912439520351528</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.005582744559912339</v>
+        <v>2.487110340909853</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.920702351772171</v>
+        <v>4.796043721841063</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>2.487110340909853</v>
+        <v>1.125305393088916e-16</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.796043721841063</v>
+        <v>1397943025.784411</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>1.125305393088916e-16</v>
+        <v>8.601546840379314e-08</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>1397943025.784411</v>
+        <v>219.9122104083135</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>8.601546840379314e-08</v>
+        <v>0.0001386638744882548</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>219.9122104083135</v>
+        <v>9.24654602085019</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001386638744882548</v>
+        <v>1.18336211664176</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>9.24654602085019</v>
+        <v>0.01185556898572813</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.18336211664176</v>
+        <v>3.162024648857102</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01185556898572813</v>
+        <v>0.9582851975907413</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>3.162024648857102</v>
+        <v>1.303146256744271</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9582851975907413</v>
+        <v>82</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.303146256744271</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>82</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.8538063693154728</v>
       </c>
     </row>
@@ -6634,72 +6538,66 @@
         <v>9.771069753913116e-08</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.3865840604007665</v>
+        <v>2.889701314357022e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.530956248657754</v>
+        <v>2.468279743971999e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>2.889701314357022e-07</v>
+        <v>-0.04513694165042783</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>2.468279743971999e-06</v>
+        <v>0.05844941356947429</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.04513694165042783</v>
+        <v>0.005452478410046313</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.05844941356947429</v>
+        <v>1.907756826489823</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.005452478410046313</v>
+        <v>2.54239686423832</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.911340849221765</v>
+        <v>4.497849599518634</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>2.54239686423832</v>
+        <v>1.279460282406417e-16</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.497849599518634</v>
+        <v>1251151888.120062</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>1.279460282406417e-16</v>
+        <v>9.61348561460972e-08</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>1251151888.120062</v>
+        <v>200.2842876655579</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>9.61348561460972e-08</v>
+        <v>0.0001419513521837953</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>200.2842876655579</v>
+        <v>9.267167503108535</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001419513521837953</v>
+        <v>1.193355186689202</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>9.267167503108535</v>
+        <v>0.0121908379877552</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.193355186689202</v>
+        <v>3.022562638635203</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.0121908379877552</v>
+        <v>0.9592665382236919</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>3.022562638635203</v>
+        <v>1.331473356137095</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9592665382236919</v>
+        <v>82</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.331473356137095</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>82</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.9402361256618366</v>
       </c>
     </row>
@@ -6714,72 +6612,66 @@
         <v>9.749926676510522e-08</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.3327506043130501</v>
+        <v>2.763686396970995e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.595817966514792</v>
+        <v>2.464043038239977e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>2.763686396970995e-07</v>
+        <v>-0.04163854309053117</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>2.464043038239977e-06</v>
+        <v>0.05991854601332473</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.04163854309053117</v>
+        <v>0.00532260358071232</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.05991854601332473</v>
+        <v>1.912532092752483</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.00532260358071232</v>
+        <v>2.254628917717398</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.907366992672311</v>
+        <v>4.509305780307653</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>2.254628917717398</v>
+        <v>1.272967438686782e-16</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.509305780307653</v>
+        <v>1264702413.219745</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>1.272967438686782e-16</v>
+        <v>9.523595030357224e-08</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>1264702413.219745</v>
+        <v>203.6076022051806</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>9.523595030357224e-08</v>
+        <v>0.0001379770872889171</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>203.6076022051806</v>
+        <v>8.846983219585121</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001379770872889171</v>
+        <v>1.30709491178286</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>8.846983219585121</v>
+        <v>0.01079934411053968</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.30709491178286</v>
+        <v>3.106081592844297</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.01079934411053968</v>
+        <v>0.9594876339067202</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.106081592844297</v>
+        <v>1.333520201878467</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9594876339067202</v>
+        <v>89</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.333520201878467</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>89</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.9843248353479406</v>
       </c>
     </row>
@@ -6794,72 +6686,66 @@
         <v>9.722514431125822e-08</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-0.2734424983563732</v>
+        <v>2.636728972229907e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-1.644909787206948</v>
+        <v>2.460161800039974e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>2.636728972229907e-07</v>
+        <v>-0.03806029537241498</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>2.460161800039974e-06</v>
+        <v>0.06131846253449707</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.03806029537241498</v>
+        <v>0.005207032163129603</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.06131846253449707</v>
+        <v>1.907193492142016</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.005207032163129603</v>
+        <v>2.141413767781516</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.899799598803005</v>
+        <v>4.791536002479292</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>2.141413767781516</v>
+        <v>9.304932090785313e-17</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>4.791536002479292</v>
+        <v>1737097947.481988</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>9.304932090785313e-17</v>
+        <v>6.933742549952578e-08</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>1737097947.481988</v>
+        <v>280.7771892576935</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>6.933742549952578e-08</v>
+        <v>0.0001255096530186273</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>280.7771892576935</v>
+        <v>8.49911999614327</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001255096530186273</v>
+        <v>1.466062176550343</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>8.49911999614327</v>
+        <v>0.009066194895153225</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.466062176550343</v>
+        <v>3.290219051750041</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.009066194895153225</v>
+        <v>0.9597027494748595</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>3.290219051750041</v>
+        <v>1.329327469246743</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9597027494748595</v>
+        <v>93</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.329327469246743</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>93</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.9973768742048646</v>
       </c>
     </row>
@@ -6874,72 +6760,66 @@
         <v>9.689584781909138e-08</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-0.2110770859216361</v>
+        <v>2.516795936194623e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-1.678110590183435</v>
+        <v>2.456644887434126e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>2.516795936194623e-07</v>
+        <v>-0.03443522329399151</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>2.456644887434126e-06</v>
+        <v>0.06304169656067496</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.03443522329399151</v>
+        <v>0.005158706543356377</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.06304169656067496</v>
+        <v>1.887052376659852</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.005158706543356377</v>
+        <v>2.335440802638768</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.868655407744334</v>
+        <v>5.794017778108012</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>2.335440802638768</v>
+        <v>1.010774451419445e-16</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>5.794017778108012</v>
+        <v>1588985943.882601</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>1.010774451419445e-16</v>
+        <v>7.543841412687713e-08</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>1588985943.882601</v>
+        <v>255.2080487212625</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>7.543841412687713e-08</v>
+        <v>0.0001089317323397252</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>255.2080487212625</v>
+        <v>7.627117108665127</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001089317323397252</v>
+        <v>1.705482522030999</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>7.627117108665127</v>
+        <v>0.006336876448607869</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.705482522030999</v>
+        <v>3.533504072852382</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.006336876448607869</v>
+        <v>0.9592062443589341</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>3.533504072852382</v>
+        <v>1.428255964731792</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9592062443589341</v>
+        <v>90</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.428255964731792</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>90</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.9100205165470331</v>
       </c>
     </row>
@@ -6954,72 +6834,66 @@
         <v>9.652355854072689e-08</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-0.1479191157625319</v>
+        <v>2.460898709851874e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-1.696742826284065</v>
+        <v>2.453467249974725e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>2.460898709851874e-07</v>
+        <v>-0.03140708663010752</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>2.453467249974725e-06</v>
+        <v>0.06428003826881752</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.03140708663010752</v>
+        <v>0.005117556069783371</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.06428003826881752</v>
+        <v>1.886040925203393</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.005117556069783371</v>
+        <v>2.240886399731679</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.8674730635762</v>
+        <v>4.627373077259991</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>2.240886399731679</v>
+        <v>1.88621629924667e-16</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>4.627373077259991</v>
+        <v>818489316.4024642</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>1.88621629924667e-16</v>
+        <v>1.46011131445553e-07</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>818489316.4024642</v>
+        <v>126.3623003589683</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>1.46011131445553e-07</v>
+        <v>8.870170577652014e-05</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>126.3623003589683</v>
+        <v>5.673576685190133</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>8.870170577652014e-05</v>
+        <v>1.77876819270097</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>5.673576685190133</v>
+        <v>0.002855261110168643</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.77876819270097</v>
+        <v>3.726572724626895</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.002855261110168643</v>
+        <v>0.9571592540345294</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>3.726572724626895</v>
+        <v>1.501299162295908</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9571592540345294</v>
+        <v>61</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.501299162295908</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.7815348320103175</v>
       </c>
     </row>
@@ -7034,72 +6908,66 @@
         <v>9.612803150722153e-08</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-0.08520427915135859</v>
+        <v>2.460898709851874e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-1.703392828186249</v>
+        <v>2.450551938887843e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>2.460898709851874e-07</v>
+        <v>-0.0292950234070974</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>2.450551938887843e-06</v>
+        <v>0.06513241057611392</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.0292950234070974</v>
+        <v>0.005100199489532855</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.06513241057611392</v>
+        <v>1.888923076316767</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.005100199489532855</v>
+        <v>2.106548694592619</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.870146172288706</v>
+        <v>4.107999425727479</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>2.106548694592619</v>
+        <v>2.878231689611389e-16</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>4.107999425727479</v>
+        <v>542970589.0179009</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>2.878231689611389e-16</v>
+        <v>2.203409504496592e-07</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>542970589.0179009</v>
+        <v>84.85518062798353</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>2.203409504496592e-07</v>
+        <v>8.800586125444029e-05</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>84.85518062798353</v>
+        <v>7.371346397354171</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>8.800586125444029e-05</v>
+        <v>1.645853925311245</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>7.371346397354171</v>
+        <v>0.00478195227996498</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.645853925311245</v>
+        <v>3.693133650788074</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.00478195227996498</v>
+        <v>0.9565504858311191</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>3.693133650788074</v>
+        <v>1.477765657003804</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9565504858311191</v>
+        <v>61</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.477765657003804</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.5982052389912854</v>
       </c>
     </row>
@@ -7114,72 +6982,66 @@
         <v>9.570394774109106e-08</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-0.02309954534157527</v>
+        <v>2.460898709851874e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-1.700246828262139</v>
+        <v>2.44779478792189e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>2.460898709851874e-07</v>
+        <v>-0.028400797925496</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>2.44779478792189e-06</v>
+        <v>0.06571445224117356</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.028400797925496</v>
+        <v>0.005125080969418254</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.06571445224117356</v>
+        <v>1.883253505764731</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.005125080969418254</v>
+        <v>2.054002384436691</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.863763249022232</v>
+        <v>3.690153851861865</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>2.054002384436691</v>
+        <v>3.566954357569701e-16</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>3.690153851861865</v>
+        <v>429026326.2056187</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>3.566954357569701e-16</v>
+        <v>2.777169552136055e-07</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>429026326.2056187</v>
+        <v>65.65464193463944</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>2.777169552136055e-07</v>
+        <v>0.0001059188232999601</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>65.65464193463944</v>
+        <v>9.671535746657254</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001059188232999601</v>
+        <v>1.299612542636624</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>9.671535746657254</v>
+        <v>0.009907498836905506</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.299612542636624</v>
+        <v>3.492727559211683</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.009907498836905506</v>
+        <v>0.9573697169871385</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>3.492727559211683</v>
+        <v>1.477595996960399</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9573697169871385</v>
+        <v>61</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.477595996960399</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.4593382952625487</v>
       </c>
     </row>
@@ -7194,72 +7056,66 @@
         <v>9.521019900670303e-08</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.03886539874211128</v>
+        <v>2.460898709851874e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-1.688124780952023</v>
+        <v>2.445075830113821e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>2.460898709851874e-07</v>
+        <v>-0.02875697879879052</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>2.445075830113821e-06</v>
+        <v>0.06589534612461813</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.02875697879879052</v>
+        <v>0.005169109784042695</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.06589534612461813</v>
+        <v>1.877180331273922</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.005169109784042695</v>
+        <v>2.074658053684582</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.856872628796897</v>
+        <v>3.678621751425786</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>2.074658053684582</v>
+        <v>3.589353481404484e-16</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>3.678621751425786</v>
+        <v>417914430.5695161</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>3.589353481404484e-16</v>
+        <v>2.831325597647662e-07</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>417914430.5695161</v>
+        <v>62.68894558184576</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>2.831325597647662e-07</v>
+        <v>0.0001089690904539532</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>62.68894558184576</v>
+        <v>10.3977875366565</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001089690904539532</v>
+        <v>1.164934150682239</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>10.3977875366565</v>
+        <v>0.01178108268244399</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.164934150682239</v>
+        <v>3.326804983169996</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.01178108268244399</v>
+        <v>0.9578621562605993</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>3.326804983169996</v>
+        <v>1.511264651200505</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9578621562605993</v>
+        <v>74</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.511264651200505</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>74</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.4241761919450843</v>
       </c>
     </row>
@@ -7274,72 +7130,66 @@
         <v>9.454804552090563e-08</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.1007095384284308</v>
+        <v>2.460898709851874e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-1.666389151483087</v>
+        <v>2.442281396791827e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>2.460898709851874e-07</v>
+        <v>-0.03023986240070318</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>2.442281396791827e-06</v>
+        <v>0.06494685039430179</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.03023986240070318</v>
+        <v>0.005132127378091335</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.06494685039430179</v>
+        <v>1.883390098041702</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.005132127378091335</v>
+        <v>2.112236228268246</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.856403500450602</v>
+        <v>3.681880853653097</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>2.112236228268246</v>
+        <v>3.583001894820523e-16</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>3.681880853653097</v>
+        <v>418881679.1801326</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>3.583001894820523e-16</v>
+        <v>2.830755141273301e-07</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>418881679.1801326</v>
+        <v>62.86801809791015</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>2.830755141273301e-07</v>
+        <v>0.0001103562421524</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>62.86801809791015</v>
+        <v>9.278762768355497</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001103562421524</v>
+        <v>1.226629186741367</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>9.278762768355497</v>
+        <v>0.009501169060583351</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.226629186741367</v>
+        <v>3.412358533698431</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.009501169060583351</v>
+        <v>0.9583140369372448</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>3.412358533698431</v>
+        <v>1.4977591191632</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9583140369372448</v>
+        <v>74</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.4977591191632</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>74</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.3897343284402474</v>
       </c>
     </row>
@@ -7354,72 +7204,66 @@
         <v>9.363722777027451e-08</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0.1615364229761338</v>
+        <v>2.460898709851874e-07</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-1.635007692879095</v>
+        <v>2.439376485678331e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>2.460898709851874e-07</v>
+        <v>-0.0312588073834961</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>2.439376485678331e-06</v>
+        <v>0.06475842556107497</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>-0.0312588073834961</v>
+        <v>0.005170834298787824</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.06475842556107497</v>
+        <v>1.87954719507873</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.005170834298787824</v>
+        <v>2.016312166521354</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.847879543033967</v>
+        <v>3.664407555721042</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>2.016312166521354</v>
+        <v>3.617253612393437e-16</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>3.664407555721042</v>
+        <v>426002256.052697</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>3.617253612393437e-16</v>
+        <v>2.785181737944459e-07</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>426002256.052697</v>
+        <v>65.64516695101047</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>2.785181737944459e-07</v>
+        <v>0.0001262420281327966</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>65.64516695101047</v>
+        <v>8.246091796307613</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.0001262420281327966</v>
+        <v>1.528748415802168</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>8.246091796307613</v>
+        <v>0.008584209205268319</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.528748415802168</v>
+        <v>3.434800985462771</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.008584209205268319</v>
+        <v>0.9597297569857269</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>3.434800985462771</v>
+        <v>1.488232862127181</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9597297569857269</v>
+        <v>79</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.488232862127181</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>79</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>0.3490541550664727</v>
       </c>
     </row>
@@ -7434,72 +7278,66 @@
         <v>9.255774119265782e-08</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0.2216806389826619</v>
+        <v>2.460898709851874e-07</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-1.594139154087804</v>
+        <v>2.436455452915683e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>2.460898709851874e-07</v>
+        <v>-0.03142637785036184</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>2.436455452915683e-06</v>
+        <v>0.06560527081674758</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>-0.03142637785036184</v>
+        <v>0.005291772032792626</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.06560527081674758</v>
+        <v>1.868458604148354</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.005291772032792626</v>
+        <v>1.911399707794672</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.839581453580415</v>
+        <v>3.7295890390278</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>1.911399707794672</v>
+        <v>3.470740353732698e-16</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>3.7295890390278</v>
+        <v>450773124.20701</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>3.470740353732698e-16</v>
+        <v>2.625090949855841e-07</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>450773124.20701</v>
+        <v>70.52419782107485</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>2.625090949855841e-07</v>
+        <v>0.0001283759160261781</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>70.52419782107485</v>
+        <v>9.464057702675126</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.0001283759160261781</v>
+        <v>1.388414474945228</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>9.464057702675126</v>
+        <v>0.01149842388210739</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.388414474945228</v>
+        <v>3.33333053222434</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.01149842388210739</v>
+        <v>0.9578428483848385</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>3.33333053222434</v>
+        <v>1.541549764451253</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9578428483848385</v>
+        <v>79</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.541549764451253</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>79</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>0.3715901155058223</v>
       </c>
     </row>
@@ -7514,72 +7352,66 @@
         <v>9.140633985963594e-08</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>0.2825629174090179</v>
+        <v>2.460898709851874e-07</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-1.543287068388493</v>
+        <v>2.433562238837446e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>2.460898709851874e-07</v>
+        <v>-0.03146137143760399</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>2.433562238837446e-06</v>
+        <v>0.06652235089867214</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>-0.03146137143760399</v>
+        <v>0.005415120302451324</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.06652235089867214</v>
+        <v>1.863355487192373</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.005415120302451324</v>
+        <v>1.995110496954722</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.835280776541872</v>
+        <v>3.91723561311067</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>1.995110496954722</v>
+        <v>3.006945478000925e-16</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>3.91723561311067</v>
+        <v>542679904.5606407</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>3.006945478000925e-16</v>
+        <v>2.179531155152547e-07</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>542679904.5606407</v>
+        <v>88.55498899841805</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>2.179531155152547e-07</v>
+        <v>0.0001294554404401118</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>88.55498899841805</v>
+        <v>10.30665091848301</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.0001294554404401118</v>
+        <v>1.243296956826959</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>10.30665091848301</v>
+        <v>0.01375166995289611</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.243296956826959</v>
+        <v>3.240975797428749</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.01375166995289611</v>
+        <v>0.9587374598369938</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>3.240975797428749</v>
+        <v>1.540826725695552</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9587374598369938</v>
+        <v>86</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.540826725695552</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>86</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>0.3522835873912074</v>
       </c>
     </row>
@@ -7594,72 +7426,66 @@
         <v>9.020348979231536e-08</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.3446332433709829</v>
+        <v>2.460898709851874e-07</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-1.481590530674036</v>
+        <v>2.430707524664641e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>2.460898709851874e-07</v>
+        <v>-0.03137803792465361</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>2.430707524664641e-06</v>
+        <v>0.0675861632218669</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>-0.03137803792465361</v>
+        <v>0.00555255761596916</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.0675861632218669</v>
+        <v>1.868438130646782</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.00555255761596916</v>
+        <v>2.178598945404756</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.839143185572929</v>
+        <v>3.804872995360565</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>2.178598945404756</v>
+        <v>3.187165474926456e-16</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>3.804872995360565</v>
+        <v>523426452.0635419</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>3.187165474926456e-16</v>
+        <v>2.27416141197025e-07</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>523426452.0635419</v>
+        <v>87.32044600785532</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>2.27416141197025e-07</v>
+        <v>0.0001170954861099929</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>87.32044600785532</v>
+        <v>10.18273900173039</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.0001170954861099929</v>
+        <v>1.171760960968414</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>10.18273900173039</v>
+        <v>0.01214141708889844</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.171760960968414</v>
+        <v>3.217648896082037</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.01214141708889844</v>
+        <v>0.9571723509568133</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>3.217648896082037</v>
+        <v>1.524150446629366</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9571723509568133</v>
+        <v>86</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.524150446629366</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>86</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>0.3605172472780281</v>
       </c>
     </row>
@@ -7674,72 +7500,66 @@
         <v>8.891238017266401e-08</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.4072455802430978</v>
+        <v>2.460898709851874e-07</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-1.407911693005983</v>
+        <v>2.427906548719071e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>2.460898709851874e-07</v>
+        <v>-0.03112953393428232</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>2.427906548719071e-06</v>
+        <v>0.0690527358531889</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>-0.03112953393428232</v>
+        <v>0.005737264261005692</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.0690527358531889</v>
+        <v>1.866200451661393</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.005737264261005692</v>
+        <v>2.283489952110675</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.835965136433199</v>
+        <v>3.822621290174267</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>2.283489952110675</v>
+        <v>3.869514548155249e-16</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>3.822621290174267</v>
+        <v>429071765.9464824</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>3.869514548155249e-16</v>
+        <v>2.768216963800323e-07</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>429071765.9464824</v>
+        <v>71.23876129492699</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>2.768216963800323e-07</v>
+        <v>0.0001030397484805367</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>71.23876129492699</v>
+        <v>8.404919098068683</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.0001030397484805367</v>
+        <v>1.198389364411391</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>8.404919098068683</v>
+        <v>0.00727900243823981</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.198389364411391</v>
+        <v>3.427969190166368</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.00727900243823981</v>
+        <v>0.9569566936764207</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>3.427969190166368</v>
+        <v>1.538836158102196</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9569566936764207</v>
+        <v>57</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.538836158102196</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>0.3731005880013161</v>
       </c>
     </row>
@@ -7754,72 +7574,66 @@
         <v>8.746432296302942e-08</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.4689678548118576</v>
+        <v>2.460898709851874e-07</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-1.321492909339441</v>
+        <v>2.425167918939477e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>2.460898709851874e-07</v>
+        <v>-0.03104076113540588</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>2.425167918939477e-06</v>
+        <v>0.07080899998548472</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>-0.03104076113540588</v>
+        <v>0.005977252170856337</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.07080899998548472</v>
+        <v>1.856051510219049</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.005977252170856337</v>
+        <v>2.022225044217175</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.82122208231827</v>
+        <v>3.805564908921201</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>2.022225044217175</v>
+        <v>3.904278280425178e-16</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>3.805564908921201</v>
+        <v>423122962.3585667</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>3.904278280425178e-16</v>
+        <v>2.80178831859803e-07</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>423122962.3585667</v>
+        <v>69.89948145287947</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>2.80178831859803e-07</v>
+        <v>0.0001098999689779768</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>69.89948145287947</v>
+        <v>7.102312814645746</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.0001098999689779768</v>
+        <v>1.602975041535389</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>7.102312814645746</v>
+        <v>0.005543667355308044</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.602975041535389</v>
+        <v>3.489814544784439</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.005543667355308044</v>
+        <v>0.9576078914414656</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>3.489814544784439</v>
+        <v>1.540749920718253</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9576078914414656</v>
+        <v>51</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.540749920718253</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>0.3570081419376879</v>
       </c>
     </row>
@@ -7834,72 +7648,66 @@
         <v>8.57944662703427e-08</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0.5283664640980559</v>
+        <v>2.460898709851874e-07</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-1.223122748366714</v>
+        <v>2.422461848131122e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>2.460898709851874e-07</v>
+        <v>-0.03139496958075469</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>2.422461848131122e-06</v>
+        <v>0.07246846860025588</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>-0.03139496958075469</v>
+        <v>0.006237162960651693</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.07246846860025588</v>
+        <v>1.853811320683505</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.006237162960651693</v>
+        <v>2.05460365365408</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.826720649342885</v>
+        <v>4.033249628120662</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>2.05460365365408</v>
+        <v>3.475912437562047e-16</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>4.033249628120662</v>
+        <v>471231891.2431098</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>3.475912437562047e-16</v>
+        <v>2.511107464799359e-07</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>471231891.2431098</v>
+        <v>77.18593616773825</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>2.511107464799359e-07</v>
+        <v>0.0001210257808225723</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>77.18593616773825</v>
+        <v>7.778319477543436</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.0001210257808225723</v>
+        <v>1.355727240217075</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>7.778319477543436</v>
+        <v>0.007322332519135405</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.355727240217075</v>
+        <v>3.259079733122348</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.007322332519135405</v>
+        <v>0.9569392168979157</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>3.259079733122348</v>
+        <v>1.545352962269571</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9569392168979157</v>
+        <v>63</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.545352962269571</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>0.3823575187997632</v>
       </c>
     </row>
@@ -7914,72 +7722,66 @@
         <v>8.391130899907876e-08</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.584843952057217</v>
+        <v>2.460887711662498e-07</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-1.113810988462555</v>
+        <v>2.419789853572201e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>2.460887711662498e-07</v>
+        <v>-0.03156477473611886</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>2.419789853572201e-06</v>
+        <v>0.07454210995168667</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>-0.03156477473611886</v>
+        <v>0.006552942956159119</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.07454210995168667</v>
+        <v>1.843625944702669</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.006552942956159119</v>
+        <v>2.197045727064554</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.810048095378843</v>
+        <v>4.025063271612408</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>2.197045727064554</v>
+        <v>3.887380137759308e-16</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>4.025063271612408</v>
+        <v>417765868.3933144</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>3.887380137759308e-16</v>
+        <v>2.83126580364158e-07</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>417765868.3933144</v>
+        <v>67.84579277327136</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>2.83126580364158e-07</v>
+        <v>0.0001374672197450623</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>67.84579277327136</v>
+        <v>8.600486192365139</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.0001374672197450623</v>
+        <v>1.351965325977945</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>8.600486192365139</v>
+        <v>0.01016822517565811</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.351965325977945</v>
+        <v>3.011097187052931</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.01016822517565811</v>
+        <v>0.9569121990243191</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>3.011097187052931</v>
+        <v>1.590459149233242</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9569121990243191</v>
+        <v>49</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.590459149233242</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>0.37194368472009</v>
       </c>
     </row>
@@ -8356,7 +8158,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.509549432574327</v>
+        <v>1.500038165284128</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.456507569011078</v>
@@ -8445,7 +8247,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.571947745781141</v>
+        <v>1.560266312287517</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.382213479569237</v>
@@ -8534,7 +8336,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.582447961189409</v>
+        <v>1.568051788221464</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.440154872058432</v>
@@ -8623,7 +8425,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.589649072553589</v>
+        <v>1.57108811242447</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.442991244019042</v>
@@ -8712,7 +8514,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.593863768832853</v>
+        <v>1.579940033689595</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.377596636017048</v>
@@ -8801,7 +8603,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.603260235317613</v>
+        <v>1.587502619031297</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.488391082656407</v>
@@ -8890,7 +8692,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.625516607571035</v>
+        <v>1.603213903245379</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.525480574503456</v>
@@ -8979,7 +8781,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.625595013024708</v>
+        <v>1.603557140959231</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.389012008711602</v>
@@ -9068,7 +8870,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.601887078125874</v>
+        <v>1.580823424204589</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.37084816887921</v>
@@ -9157,7 +8959,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.608043947142382</v>
+        <v>1.58695721208411</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.631694621664635</v>
@@ -9246,7 +9048,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.606877402747213</v>
+        <v>1.586071224011804</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.666202733500914</v>
@@ -9335,7 +9137,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.60833774846618</v>
+        <v>1.584932039367364</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.763587378842691</v>
@@ -9424,7 +9226,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.631269664168061</v>
+        <v>1.597656570910105</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.297820000834649</v>
@@ -9513,7 +9315,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.636819495834864</v>
+        <v>1.600239888054442</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.600399339492865</v>
@@ -9602,7 +9404,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.603654536650126</v>
+        <v>1.57155582718074</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.736485711774691</v>
@@ -9691,7 +9493,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.602880528837291</v>
+        <v>1.565731266188975</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.648188855207087</v>
@@ -9780,7 +9582,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.587085596477071</v>
+        <v>1.551481317575841</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.788225070855697</v>
@@ -9869,7 +9671,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.58208942885721</v>
+        <v>1.544096490199506</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.700611414715708</v>
@@ -9958,7 +9760,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.577462057086892</v>
+        <v>1.539187340573716</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.545295507229276</v>
@@ -10047,7 +9849,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.577373912220098</v>
+        <v>1.535341589976043</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.752421583474025</v>
@@ -10136,7 +9938,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.57678155427416</v>
+        <v>1.536358637646077</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.599421109988346</v>
@@ -10225,7 +10027,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.551316475898799</v>
+        <v>1.518824289782089</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.617803779936072</v>
@@ -10314,7 +10116,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.554588637151513</v>
+        <v>1.520316853127627</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.28265829524457</v>
@@ -10403,7 +10205,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.599306410227434</v>
+        <v>1.554749103570212</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.699625355609865</v>
@@ -10492,7 +10294,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.612243984298435</v>
+        <v>1.565701344403346</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.736883677548803</v>
@@ -10581,7 +10383,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.623423619851392</v>
+        <v>1.574802237543386</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.964645228812786</v>
@@ -10670,7 +10472,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.623406461976022</v>
+        <v>1.571868834163599</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.856759109366555</v>
@@ -10759,7 +10561,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.623400976620067</v>
+        <v>1.573021370027057</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.962049906633899</v>
@@ -10848,7 +10650,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.629033738722097</v>
+        <v>1.580994697998231</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.848414345696449</v>
@@ -10937,7 +10739,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.66961454795692</v>
+        <v>1.623591731381196</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.362307382148612</v>
@@ -11026,7 +10828,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.642043472071267</v>
+        <v>1.604263648404678</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.396066352378122</v>
@@ -11115,7 +10917,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.639376045132787</v>
+        <v>1.607673728145654</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.322308010810718</v>
@@ -11204,7 +11006,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.649072180983483</v>
+        <v>1.61915030629575</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.404599633088651</v>
@@ -11293,7 +11095,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.657662745288776</v>
+        <v>1.630247063910625</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.440691484348266</v>
@@ -11382,7 +11184,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.666780761369757</v>
+        <v>1.641435492128098</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.316471299099771</v>
@@ -11471,7 +11273,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.676832953725725</v>
+        <v>1.645096185442423</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.308125088186374</v>
@@ -11560,7 +11362,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.712366312091815</v>
+        <v>1.682441002471792</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.439235757886578</v>
@@ -11649,7 +11451,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.719637390779007</v>
+        <v>1.689746220795115</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.401644919152336</v>
@@ -11738,7 +11540,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.72763344006909</v>
+        <v>1.698002395150565</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.351892918210317</v>
@@ -11827,7 +11629,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.723562455485109</v>
+        <v>1.69349047207149</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.347487789307314</v>
@@ -11916,7 +11718,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.718868014974147</v>
+        <v>1.687865165037515</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.323838412322329</v>
@@ -12005,7 +11807,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.710379642826395</v>
+        <v>1.681364977955508</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.338639884265375</v>
@@ -12094,7 +11896,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.710287236820367</v>
+        <v>1.684258632739337</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.385899779209423</v>
@@ -12183,7 +11985,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.693039609014149</v>
+        <v>1.664490769303457</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.371724973252769</v>
@@ -12272,7 +12074,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.687901762436907</v>
+        <v>1.651226544223287</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.585128633425388</v>
@@ -12361,7 +12163,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.722141252402889</v>
+        <v>1.684809948395127</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.387503833692095</v>
@@ -12450,7 +12252,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.732764598213794</v>
+        <v>1.688011916167785</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.469840394049729</v>
@@ -12539,7 +12341,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.734816972090212</v>
+        <v>1.683448021424814</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.059030557763153</v>
@@ -12628,7 +12430,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.737757891356961</v>
+        <v>1.687649303104199</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.474787194789559</v>
@@ -12717,7 +12519,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.689845303750322</v>
+        <v>1.649017092440216</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.582134296199241</v>
@@ -12806,7 +12608,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.678969044719969</v>
+        <v>1.640187489286789</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.735714061231722</v>
@@ -12895,7 +12697,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.673882594790536</v>
+        <v>1.632661201778282</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.826334063213864</v>
@@ -12984,7 +12786,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.676817215980532</v>
+        <v>1.634795307409059</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.971639352186886</v>
@@ -13073,7 +12875,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.677096549034593</v>
+        <v>1.641503295073409</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.901544205845119</v>
@@ -13162,7 +12964,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.657510090199111</v>
+        <v>1.619007511145749</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.659870442723567</v>
@@ -13251,7 +13053,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.660999746296559</v>
+        <v>1.629113239778885</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.810950463992421</v>
@@ -13340,7 +13142,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.662955768094884</v>
+        <v>1.631105526968739</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.796434990644176</v>
@@ -13429,7 +13231,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.65965480395349</v>
+        <v>1.625156165883149</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.88175266732692</v>
@@ -13518,7 +13320,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.679997101660237</v>
+        <v>1.649516513667692</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.775262932340859</v>
@@ -13607,7 +13409,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.69275813089321</v>
+        <v>1.658393383607256</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.806837300431096</v>
@@ -13696,7 +13498,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.678835889163542</v>
+        <v>1.65438152225488</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.982002078270065</v>
@@ -13785,7 +13587,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.653118726975478</v>
+        <v>1.639977652250429</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.879055507919007</v>
@@ -13874,7 +13676,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.644431983229813</v>
+        <v>1.633709287145713</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.906980440082976</v>
@@ -13963,7 +13765,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.650581174790655</v>
+        <v>1.63864325397828</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.806396383912758</v>
@@ -14052,7 +13854,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.697843549014814</v>
+        <v>1.676371653839765</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.989054799815759</v>
@@ -14141,7 +13943,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.713593537833295</v>
+        <v>1.694565237152758</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.230404960897665</v>
@@ -14230,7 +14032,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.71875971006556</v>
+        <v>1.693149059842856</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.028473448449086</v>
@@ -14319,7 +14121,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.721889280616399</v>
+        <v>1.695623506815874</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.105203435678166</v>
@@ -14408,7 +14210,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.738559665868838</v>
+        <v>1.707472606804032</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.217678329083038</v>
@@ -14497,7 +14299,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.759436186561828</v>
+        <v>1.72585693458266</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.179100491948605</v>
@@ -14586,7 +14388,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.763798006372254</v>
+        <v>1.730462475557474</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.302658635974677</v>
@@ -14675,7 +14477,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.775546902659029</v>
+        <v>1.740262011791147</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.366013195548921</v>
@@ -14764,7 +14566,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.787808648944667</v>
+        <v>1.754701839683384</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.343149393684204</v>
@@ -14853,7 +14655,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.783043555353207</v>
+        <v>1.749439742802721</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.202213272070372</v>
@@ -14942,7 +14744,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.784268582727733</v>
+        <v>1.75490102982754</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.283276656603485</v>
@@ -15031,7 +14833,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.817753188979826</v>
+        <v>1.774290249067914</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.963736606811899</v>
@@ -15317,7 +15119,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.539986181456658</v>
+        <v>1.543787841159082</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.411530007345675</v>
@@ -15406,7 +15208,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.565251162876044</v>
+        <v>1.569569657491896</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.548187073343399</v>
@@ -15495,7 +15297,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.567762456185752</v>
+        <v>1.573329139543082</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.458364991854682</v>
@@ -15584,7 +15386,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.57816670717014</v>
+        <v>1.579437144842136</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.457722244857222</v>
@@ -15673,7 +15475,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.592124213995694</v>
+        <v>1.594247550780457</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.505111414915693</v>
@@ -15762,7 +15564,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.604350671720824</v>
+        <v>1.603852863377709</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.51453028605281</v>
@@ -15851,7 +15653,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.613475633756913</v>
+        <v>1.615570108303089</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.464350155275905</v>
@@ -15940,7 +15742,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.62292522362384</v>
+        <v>1.6239881199259</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.51942481336199</v>
@@ -16029,7 +15831,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.613689894911195</v>
+        <v>1.615306503539252</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.146264555135644</v>
@@ -16118,7 +15920,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.675295825987057</v>
+        <v>1.664239222624233</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.950034384129051</v>
@@ -16207,7 +16009,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.667949944747218</v>
+        <v>1.660021639609695</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.876876987766834</v>
@@ -16296,7 +16098,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.631929615369927</v>
+        <v>1.623164513275257</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.777185539541468</v>
@@ -16385,7 +16187,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.626608134791352</v>
+        <v>1.616198552154883</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.855901139259084</v>
@@ -16474,7 +16276,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.620347130102176</v>
+        <v>1.603982722086397</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.742284465043727</v>
@@ -16563,7 +16365,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.594419286640795</v>
+        <v>1.580145944808516</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.690759098649631</v>
@@ -16652,7 +16454,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.598660155417264</v>
+        <v>1.587549046256949</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.726319635392751</v>
@@ -16741,7 +16543,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.601211509457068</v>
+        <v>1.58856658476583</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.631375995166704</v>
@@ -16830,7 +16632,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.604330662599159</v>
+        <v>1.586823641907675</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.712841275045158</v>
@@ -16919,7 +16721,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.60435631497275</v>
+        <v>1.585110284331468</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.669275808588518</v>
@@ -17008,7 +16810,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.599401030732902</v>
+        <v>1.584281662129897</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.549222409461971</v>
@@ -17097,7 +16899,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.593432083629999</v>
+        <v>1.578610582783208</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.549124587399695</v>
@@ -17186,7 +16988,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.574226498423268</v>
+        <v>1.560213169374699</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.697072688362168</v>
@@ -17275,7 +17077,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.566938305639913</v>
+        <v>1.551428429873654</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.595512451493899</v>
@@ -17364,7 +17166,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.594064480011216</v>
+        <v>1.570844981944927</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.720254772830038</v>
@@ -17453,7 +17255,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.573691654232861</v>
+        <v>1.557009788265247</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.64666372437859</v>
@@ -17542,7 +17344,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.584753270487095</v>
+        <v>1.564813987323393</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.401213671078283</v>
@@ -17631,7 +17433,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.613550884756768</v>
+        <v>1.593303177896018</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.549588159604101</v>
@@ -17720,7 +17522,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.609455571391</v>
+        <v>1.593048726153913</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.699043748969751</v>
@@ -17809,7 +17611,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.609541817017706</v>
+        <v>1.600181043497717</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.619097153906015</v>
@@ -17898,7 +17700,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.637787543952379</v>
+        <v>1.618456352019234</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.833851875877254</v>
@@ -17987,7 +17789,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.620622285478978</v>
+        <v>1.603009344101515</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.863642560852751</v>
@@ -18076,7 +17878,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.602723480420708</v>
+        <v>1.587690435345615</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.062981796353526</v>
@@ -18165,7 +17967,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.59809937475421</v>
+        <v>1.588984398806598</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.025405378000062</v>
@@ -18254,7 +18056,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.603949343209997</v>
+        <v>1.596530344912585</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.275579754456071</v>
@@ -18343,7 +18145,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.596788128027812</v>
+        <v>1.591802883187394</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.715200325836641</v>
@@ -18432,7 +18234,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.603856816902663</v>
+        <v>1.598877529900884</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.819024644047925</v>
@@ -18521,7 +18323,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.624383961969586</v>
+        <v>1.622250462879455</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.163235295141277</v>
@@ -18610,7 +18412,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.641265574617539</v>
+        <v>1.63968864736176</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.358309935014081</v>
@@ -18699,7 +18501,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.649648900276347</v>
+        <v>1.649508022248201</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.994595966596064</v>
@@ -18788,7 +18590,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.651590354229558</v>
+        <v>1.650292311157034</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.600530814637738</v>
@@ -18877,7 +18679,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.647747152210241</v>
+        <v>1.647235787552783</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.352708105949932</v>
@@ -18966,7 +18768,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.646193491523008</v>
+        <v>1.644093720692727</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.036316909590859</v>
@@ -19055,7 +18857,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.65131310067643</v>
+        <v>1.650123149989694</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.269186377844165</v>
@@ -19144,7 +18946,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.636337543324456</v>
+        <v>1.634839867276007</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.052504190210694</v>
@@ -19233,7 +19035,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.627189503283381</v>
+        <v>1.626391886060405</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.968736950690878</v>
@@ -19322,7 +19124,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.625838923083982</v>
+        <v>1.632306585987289</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.961846711364369</v>
@@ -19411,7 +19213,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.633000426413013</v>
+        <v>1.64302521255984</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.872393665671696</v>
@@ -19500,7 +19302,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.624590636572504</v>
+        <v>1.632228878072321</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.334818273750718</v>
@@ -19589,7 +19391,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.61894840895024</v>
+        <v>1.627790888896295</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.958537734138834</v>
@@ -19678,7 +19480,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.593965660098788</v>
+        <v>1.608235205497445</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.571633247792698</v>
@@ -19767,7 +19569,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.562340256695699</v>
+        <v>1.58083315002925</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.412826184367274</v>
@@ -19856,7 +19658,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.564821458002972</v>
+        <v>1.582651572801578</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.426830849703121</v>
@@ -19945,7 +19747,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.566731068593876</v>
+        <v>1.585331031494363</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.418509295866165</v>
@@ -20034,7 +19836,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.578849473287631</v>
+        <v>1.597664828042729</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.562991955091385</v>
@@ -20123,7 +19925,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.566671091480185</v>
+        <v>1.582566312974592</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.42661824887058</v>
@@ -20212,7 +20014,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.56506374440971</v>
+        <v>1.579629411125782</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.480599590020973</v>
@@ -20301,7 +20103,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.561417262942745</v>
+        <v>1.574197967839031</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.471634398981392</v>
@@ -20390,7 +20192,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.56232891380323</v>
+        <v>1.572741443009492</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.565074204031916</v>
@@ -20479,7 +20281,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.575533312220037</v>
+        <v>1.58380557670338</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.289434346128335</v>
@@ -20568,7 +20370,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.588051147013457</v>
+        <v>1.592433467589319</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.3152220125164</v>
@@ -20657,7 +20459,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.581562674366173</v>
+        <v>1.585723933616241</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.345325323716891</v>
@@ -20746,7 +20548,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.549529745908119</v>
+        <v>1.556575158389353</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.521377511881897</v>
@@ -20835,7 +20637,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.55512571357724</v>
+        <v>1.555381278752677</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.502965467853099</v>
@@ -20924,7 +20726,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.563903094972144</v>
+        <v>1.557651079986623</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.349313197433073</v>
@@ -21013,7 +20815,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.599733565047758</v>
+        <v>1.58357223233337</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.099483021969564</v>
@@ -21102,7 +20904,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.619160026249074</v>
+        <v>1.598146196608204</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.690807988417621</v>
@@ -21191,7 +20993,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.602128642364885</v>
+        <v>1.579902226387047</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.705506989738129</v>
@@ -21280,7 +21082,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.59910404527874</v>
+        <v>1.577336674551702</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.660956246399117</v>
@@ -21369,7 +21171,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.604540384302168</v>
+        <v>1.578052296967568</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.461372994671704</v>
@@ -21458,7 +21260,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.620193894421306</v>
+        <v>1.594993834904775</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.657116298223364</v>
@@ -21547,7 +21349,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.619349168302414</v>
+        <v>1.592191974285477</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.526244503654937</v>
@@ -21636,7 +21438,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.620124505657652</v>
+        <v>1.59636012373951</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.688166668052155</v>
@@ -21725,7 +21527,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.614459277253319</v>
+        <v>1.591475243246396</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.602640458518698</v>
@@ -21814,7 +21616,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.599212066984849</v>
+        <v>1.579054681716288</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.665468643655504</v>
@@ -21903,7 +21705,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.593514116148854</v>
+        <v>1.569657241687824</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.688806976471531</v>
@@ -21992,7 +21794,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.597206091592428</v>
+        <v>1.577748375314111</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.490016576794272</v>
@@ -22278,7 +22080,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.537460254508246</v>
+        <v>1.511930347833622</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.122844762314644</v>
@@ -22367,7 +22169,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.552887670290012</v>
+        <v>1.52154258237541</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.046129582802896</v>
@@ -22456,7 +22258,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.561236115777169</v>
+        <v>1.533571134129417</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.150295856018784</v>
@@ -22545,7 +22347,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.558121508274629</v>
+        <v>1.533615086311002</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.944082675966646</v>
@@ -22634,7 +22436,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.563049029456392</v>
+        <v>1.535955401622102</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.103172797260727</v>
@@ -22723,7 +22525,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.574605750579286</v>
+        <v>1.546856790194165</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.922120075441777</v>
@@ -22812,7 +22614,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.587806249503213</v>
+        <v>1.547849584088816</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.205909743251791</v>
@@ -22901,7 +22703,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.59597660678951</v>
+        <v>1.55170885240422</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.18199625138018</v>
@@ -22990,7 +22792,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.587323731307861</v>
+        <v>1.543001906663482</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.066011066184832</v>
@@ -23079,7 +22881,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.57869705738949</v>
+        <v>1.538322940175718</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.260759750937294</v>
@@ -23168,7 +22970,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.581580782748921</v>
+        <v>1.543348916581092</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.10850134253153</v>
@@ -23257,7 +23059,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.587695323902248</v>
+        <v>1.549543502204803</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.07737298310206</v>
@@ -23346,7 +23148,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.596679740051708</v>
+        <v>1.555816964361812</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.622092436077524</v>
@@ -23435,7 +23237,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.600841296092512</v>
+        <v>1.560870175888778</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.194499306499829</v>
@@ -23524,7 +23326,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.592710996312514</v>
+        <v>1.556726957153965</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.171923364032109</v>
@@ -23613,7 +23415,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.593714216558966</v>
+        <v>1.561759791856404</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.245447887483881</v>
@@ -23702,7 +23504,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.595932056086886</v>
+        <v>1.56002034013274</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.192946169128645</v>
@@ -23791,7 +23593,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.599156557416691</v>
+        <v>1.560883713867473</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.990008914219554</v>
@@ -23880,7 +23682,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.598623548437438</v>
+        <v>1.558835116549496</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.291642499952361</v>
@@ -23969,7 +23771,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.592626790551728</v>
+        <v>1.554921258660096</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.31122368821035</v>
@@ -24058,7 +23860,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.602556154787955</v>
+        <v>1.55538910530746</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.107499138321197</v>
@@ -24147,7 +23949,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.603177284121942</v>
+        <v>1.562634938348803</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.302437290677748</v>
@@ -24236,7 +24038,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.593735661406342</v>
+        <v>1.555365765997156</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.954192386519578</v>
@@ -24325,7 +24127,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.601116384519304</v>
+        <v>1.562351042078323</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.300637280169214</v>
@@ -24414,7 +24216,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.60444907407993</v>
+        <v>1.566565221499941</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.054214560819325</v>
@@ -24503,7 +24305,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.615535846313012</v>
+        <v>1.570868336682032</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.087321965788842</v>
@@ -24592,7 +24394,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.620821368121176</v>
+        <v>1.577503398320906</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.587731702400982</v>
@@ -24681,7 +24483,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.629269774297048</v>
+        <v>1.582991015019039</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.049348432769293</v>
@@ -24770,7 +24572,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.615749661312129</v>
+        <v>1.570439570497077</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.176703623319499</v>
@@ -24859,7 +24661,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.631145343936768</v>
+        <v>1.594018044840858</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.13432714023074</v>
@@ -24948,7 +24750,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.61617120465507</v>
+        <v>1.578404670886448</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.986036861695334</v>
@@ -25037,7 +24839,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.61970606347452</v>
+        <v>1.580846821907614</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.909625666237441</v>
@@ -25126,7 +24928,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.624510225817069</v>
+        <v>1.590373755228377</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.292560504994233</v>
@@ -25215,7 +25017,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.631651374087093</v>
+        <v>1.595048219558785</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.913178016032945</v>
@@ -25304,7 +25106,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.621501057884311</v>
+        <v>1.592029106057461</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.138165128988329</v>
@@ -25393,7 +25195,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.613778447947565</v>
+        <v>1.591240052058704</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.810612510304012</v>
@@ -25482,7 +25284,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.619333179123971</v>
+        <v>1.597846122856163</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.847026149265915</v>
@@ -25571,7 +25373,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.622615765334913</v>
+        <v>1.602285678414727</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.902970049686051</v>
@@ -25660,7 +25462,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.634977193982936</v>
+        <v>1.609597468130745</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.898247659175107</v>
@@ -25749,7 +25551,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.649628673589952</v>
+        <v>1.620661924213759</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.865085083190348</v>
@@ -25838,7 +25640,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.640687173265038</v>
+        <v>1.613017725602202</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.145128897285758</v>
@@ -25927,7 +25729,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.634517681268909</v>
+        <v>1.610486569382205</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.024353049407535</v>
@@ -26016,7 +25818,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.638329509055475</v>
+        <v>1.617913985581978</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.988949821951242</v>
@@ -26105,7 +25907,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.651775878522226</v>
+        <v>1.626050218459818</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.096572400526662</v>
@@ -26194,7 +25996,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.632375176489361</v>
+        <v>1.602762310243921</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.327765244950822</v>
@@ -26283,7 +26085,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.648566344190548</v>
+        <v>1.618562897910324</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.086485869967917</v>
@@ -26372,7 +26174,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.654011194477093</v>
+        <v>1.625282468681119</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.380091488360688</v>
@@ -26461,7 +26263,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.64189475821847</v>
+        <v>1.608902361165677</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.069547126997023</v>
@@ -26550,7 +26352,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.641676161127556</v>
+        <v>1.601940357131009</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.23778145942536</v>
@@ -26639,7 +26441,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.648117026490888</v>
+        <v>1.604813982679792</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.222149123699833</v>
@@ -26728,7 +26530,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.637175314637006</v>
+        <v>1.59412896474339</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.464705402110257</v>
@@ -26817,7 +26619,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.629598018200529</v>
+        <v>1.58779503454067</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.281633938461741</v>
@@ -26906,7 +26708,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.637682696573889</v>
+        <v>1.592282748245125</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.996717832545153</v>
@@ -26995,7 +26797,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.640729154788332</v>
+        <v>1.601373119458304</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.339053452942331</v>
@@ -27084,7 +26886,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.626738439800339</v>
+        <v>1.590546273631801</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.348232217693455</v>
@@ -27173,7 +26975,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.631962292372576</v>
+        <v>1.597658761414483</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.323999022807876</v>
@@ -27262,7 +27064,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.63074698653914</v>
+        <v>1.594145821382905</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.31764817916657</v>
@@ -27351,7 +27153,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.631465991427071</v>
+        <v>1.58469030118211</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.195178942080035</v>
@@ -27440,7 +27242,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.636894610631386</v>
+        <v>1.588828616206392</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.139789474075768</v>
@@ -27529,7 +27331,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.65098450696557</v>
+        <v>1.590277736635033</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.530258594632963</v>
@@ -27618,7 +27420,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.648226424831533</v>
+        <v>1.594372644981201</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.647106544244048</v>
@@ -27707,7 +27509,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.636352348548773</v>
+        <v>1.589150272029762</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.411705976646716</v>
@@ -27796,7 +27598,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.635764282482208</v>
+        <v>1.591006508351187</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.833959538273408</v>
@@ -27885,7 +27687,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.635611309632861</v>
+        <v>1.599728500979525</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.321873325859686</v>
@@ -27974,7 +27776,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.653580575830988</v>
+        <v>1.611825015434955</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.915975433962006</v>
@@ -28063,7 +27865,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.658280754146247</v>
+        <v>1.61309072786723</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.579800859439935</v>
@@ -28152,7 +27954,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.661835415133946</v>
+        <v>1.614363681531292</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.581502378929725</v>
@@ -28241,7 +28043,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.66398660988818</v>
+        <v>1.613515591195783</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.590687274462431</v>
@@ -28330,7 +28132,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.671650755572031</v>
+        <v>1.614239583372316</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.865300430167596</v>
@@ -28419,7 +28221,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.675294370677566</v>
+        <v>1.610421845995703</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.597941644992665</v>
@@ -28508,7 +28310,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.667909386460659</v>
+        <v>1.603231113865801</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.668181146501562</v>
@@ -28597,7 +28399,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.666779034840171</v>
+        <v>1.605948158165125</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.516682608552035</v>
@@ -28686,7 +28488,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.653181275054098</v>
+        <v>1.600784996582951</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.406113985678986</v>
@@ -28775,7 +28577,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.644704146967215</v>
+        <v>1.592381613702743</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.49755437772679</v>
@@ -28864,7 +28666,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.64302434789894</v>
+        <v>1.596845919362941</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.182268049285755</v>
@@ -28953,7 +28755,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.6548649104095</v>
+        <v>1.609252533313564</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.081326635542737</v>
@@ -29239,7 +29041,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.453331668622601</v>
+        <v>1.463458303405048</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.302568576999434</v>
@@ -29328,7 +29130,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.460217061255727</v>
+        <v>1.460698948066425</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.143532577253893</v>
@@ -29417,7 +29219,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.43909357868942</v>
+        <v>1.45041696045101</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.063648098410419</v>
@@ -29506,7 +29308,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.443137525093717</v>
+        <v>1.454592437007423</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.031602335884797</v>
@@ -29595,7 +29397,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.439322177743977</v>
+        <v>1.45395454680455</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.114053760410811</v>
@@ -29684,7 +29486,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.453905623929892</v>
+        <v>1.46130740321234</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.116900439965537</v>
@@ -29773,7 +29575,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.478047873662321</v>
+        <v>1.485335008308442</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.147649675672191</v>
@@ -29862,7 +29664,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.492180937139074</v>
+        <v>1.497272176964925</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.982853278953554</v>
@@ -29951,7 +29753,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.527589053810398</v>
+        <v>1.522624725364027</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.12540696689038</v>
@@ -30040,7 +29842,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.511400268812901</v>
+        <v>1.510705745606674</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.088687413532423</v>
@@ -30129,7 +29931,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.501752585767932</v>
+        <v>1.503580338046167</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.085231705831557</v>
@@ -30218,7 +30020,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.499271455361386</v>
+        <v>1.498600645492035</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.064346426454075</v>
@@ -30307,7 +30109,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.488251837702764</v>
+        <v>1.488507345700474</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.959646278910156</v>
@@ -30396,7 +30198,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.483899758502638</v>
+        <v>1.480489759702353</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.128936756339</v>
@@ -30485,7 +30287,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.485607087089763</v>
+        <v>1.482392284284726</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.045818024568794</v>
@@ -30574,7 +30376,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.489979574177652</v>
+        <v>1.483166372749743</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.051003196239797</v>
@@ -30663,7 +30465,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.523982126521887</v>
+        <v>1.512683698011323</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.956687766016754</v>
@@ -30752,7 +30554,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.546639693862843</v>
+        <v>1.527986854651098</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.330302182934058</v>
@@ -30841,7 +30643,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.544548950153352</v>
+        <v>1.521617587684576</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.233997304455552</v>
@@ -30930,7 +30732,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.491135015509742</v>
+        <v>1.470184802076984</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.30128231058865</v>
@@ -31019,7 +30821,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.484410981056391</v>
+        <v>1.468578317536439</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.375312029836035</v>
@@ -31108,7 +30910,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.487774402336337</v>
+        <v>1.473391250842854</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.344316427763632</v>
@@ -31197,7 +30999,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.48538969938081</v>
+        <v>1.470787101162168</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.271107737758775</v>
@@ -31286,7 +31088,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.444707810752442</v>
+        <v>1.435330183315484</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.219534158310766</v>
@@ -31375,7 +31177,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.460752773043467</v>
+        <v>1.451719127823241</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.374973620504848</v>
@@ -31464,7 +31266,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.472773911562046</v>
+        <v>1.463199160446129</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.279386064084904</v>
@@ -31553,7 +31355,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.473307825924333</v>
+        <v>1.469448474642477</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.341267157540064</v>
@@ -31642,7 +31444,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.487852563459722</v>
+        <v>1.483327638000935</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.207809852043791</v>
@@ -31731,7 +31533,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.493186513340046</v>
+        <v>1.492702033236939</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.285977088846052</v>
@@ -31820,7 +31622,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.495331874444868</v>
+        <v>1.497598498502648</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.462678661842842</v>
@@ -31909,7 +31711,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.483072153156918</v>
+        <v>1.494446897217357</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.443428321148641</v>
@@ -31998,7 +31800,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.488884532101217</v>
+        <v>1.49597462390238</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.373392509890237</v>
@@ -32087,7 +31889,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.48713839806309</v>
+        <v>1.497992176038405</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.340281188155013</v>
@@ -32176,7 +31978,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.491928340297138</v>
+        <v>1.505451752735551</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.268597680240891</v>
@@ -32265,7 +32067,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.547660672063585</v>
+        <v>1.560945383843935</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.289231081650918</v>
@@ -32354,7 +32156,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.554519735517114</v>
+        <v>1.565611696949359</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.337885738892648</v>
@@ -32443,7 +32245,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.530628017399387</v>
+        <v>1.543128193449075</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.398367925077838</v>
@@ -32532,7 +32334,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.526770912183617</v>
+        <v>1.544032075585616</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.230270997522204</v>
@@ -32621,7 +32423,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.589626939772341</v>
+        <v>1.599362356499606</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.517909777213398</v>
@@ -32710,7 +32512,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.597681756789592</v>
+        <v>1.60649386637743</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.55091102327206</v>
@@ -32799,7 +32601,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.55808941202626</v>
+        <v>1.568268339528419</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.409342374301603</v>
@@ -32888,7 +32690,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.549280469179371</v>
+        <v>1.560573117356113</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.411090781324714</v>
@@ -32977,7 +32779,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.57792697227561</v>
+        <v>1.58433598104742</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.348530551207892</v>
@@ -33066,7 +32868,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.552829367097188</v>
+        <v>1.566682371172954</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.27944919882458</v>
@@ -33155,7 +32957,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.548760801009923</v>
+        <v>1.55744334860175</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.447685201089067</v>
@@ -33244,7 +33046,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.554539937972919</v>
+        <v>1.561981682996065</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.259634666620595</v>
@@ -33333,7 +33135,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.560160381794778</v>
+        <v>1.570976791231711</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.304718792084784</v>
@@ -33422,7 +33224,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.557417971850771</v>
+        <v>1.566311188833422</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.388229983493616</v>
@@ -33511,7 +33313,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.56160255497229</v>
+        <v>1.569257223035168</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.302247078161108</v>
@@ -33600,7 +33402,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.556198244209237</v>
+        <v>1.564316824984613</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.347625867127094</v>
@@ -33689,7 +33491,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.514960180121133</v>
+        <v>1.526981422243188</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.250090086452889</v>
@@ -33778,7 +33580,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.540820530407028</v>
+        <v>1.551407173819343</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.146074906713016</v>
@@ -33867,7 +33669,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.541863886005459</v>
+        <v>1.552042520733409</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.209687839065192</v>
@@ -33956,7 +33758,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.545414026173368</v>
+        <v>1.555501227312524</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.339943348680806</v>
@@ -34045,7 +33847,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.546888189945369</v>
+        <v>1.550895630789823</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.308743381646539</v>
@@ -34134,7 +33936,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.590768597805035</v>
+        <v>1.591919367196992</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.324548727468825</v>
@@ -34223,7 +34025,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.588517056907551</v>
+        <v>1.585844690244796</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.243410853583385</v>
@@ -34312,7 +34114,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.550018060932629</v>
+        <v>1.551406191114257</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.177678761006106</v>
@@ -34401,7 +34203,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.571442034060267</v>
+        <v>1.567298732948275</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.186648074280757</v>
@@ -34490,7 +34292,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.586667222418975</v>
+        <v>1.578434072722837</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.266854078787568</v>
@@ -34579,7 +34381,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.58906863400398</v>
+        <v>1.577494398540306</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.276039868077584</v>
@@ -34668,7 +34470,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.560385078887134</v>
+        <v>1.55391534253705</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.354433120635622</v>
@@ -34757,7 +34559,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.561816856633998</v>
+        <v>1.55447365749715</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.291462324117853</v>
@@ -34846,7 +34648,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.561945590045332</v>
+        <v>1.555958164164744</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.282860880167875</v>
@@ -34935,7 +34737,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.583088068706026</v>
+        <v>1.572347595409079</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.327626239595157</v>
@@ -35024,7 +34826,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.622346678082806</v>
+        <v>1.605666307621374</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.552771134871457</v>
@@ -35113,7 +34915,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.624399143999594</v>
+        <v>1.605592472343359</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.571460173861765</v>
@@ -35202,7 +35004,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.624866414868816</v>
+        <v>1.600867910241517</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.450711926512716</v>
@@ -35291,7 +35093,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.62329809886198</v>
+        <v>1.602579530599414</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.45033415251488</v>
@@ -35380,7 +35182,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.626168120775094</v>
+        <v>1.603355906953976</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.393455902629006</v>
@@ -35469,7 +35271,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.596425639654252</v>
+        <v>1.576156109926862</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.418268824719284</v>
@@ -35558,7 +35360,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.611664172635963</v>
+        <v>1.590202005519393</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.623668358573012</v>
@@ -35647,7 +35449,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.648610393267293</v>
+        <v>1.618030553990276</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.544969196408098</v>
@@ -35736,7 +35538,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.616468914447513</v>
+        <v>1.59593295803422</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.553305586742718</v>
@@ -35825,7 +35627,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.614362147321953</v>
+        <v>1.596391261129232</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.588775759619602</v>
@@ -35914,7 +35716,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.615436316458777</v>
+        <v>1.599963225510116</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.533052832060122</v>
@@ -36200,7 +36002,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.510319738376086</v>
+        <v>1.500915947217686</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.345718734516704</v>
@@ -36289,7 +36091,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.539132356192661</v>
+        <v>1.530544272462302</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.521539850320061</v>
@@ -36378,7 +36180,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.552332533562103</v>
+        <v>1.540638034787141</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.586325374374277</v>
@@ -36467,7 +36269,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.544239339606609</v>
+        <v>1.528563771263396</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.481596172021688</v>
@@ -36556,7 +36358,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.552858476426028</v>
+        <v>1.537380069000798</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.564205720437157</v>
@@ -36645,7 +36447,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.55448931697488</v>
+        <v>1.540173040377399</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.624155786385415</v>
@@ -36734,7 +36536,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.571587099412631</v>
+        <v>1.560138861488498</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.536239117619214</v>
@@ -36823,7 +36625,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.591053810698825</v>
+        <v>1.57848340155114</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.602531274827694</v>
@@ -36912,7 +36714,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.590504819272151</v>
+        <v>1.569185054742028</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.257231495359617</v>
@@ -37001,7 +36803,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.633897592583965</v>
+        <v>1.604617176225231</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.759850231215883</v>
@@ -37090,7 +36892,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.636218290215893</v>
+        <v>1.607439703283822</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.031008032406729</v>
@@ -37179,7 +36981,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.61970466839561</v>
+        <v>1.591291595695775</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.988817223608959</v>
@@ -37268,7 +37070,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.629873007335819</v>
+        <v>1.59908688207961</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.803011211583049</v>
@@ -37357,7 +37159,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.630161122833094</v>
+        <v>1.596981489251553</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.67670000195704</v>
@@ -37446,7 +37248,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.596845935876088</v>
+        <v>1.573600735795985</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.572755211968415</v>
@@ -37535,7 +37337,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.586801822168967</v>
+        <v>1.567255240613552</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.695510511548695</v>
@@ -37624,7 +37426,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.587061948325432</v>
+        <v>1.565822703075652</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.585331684161485</v>
@@ -37713,7 +37515,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.586997970477039</v>
+        <v>1.566280488046807</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.569225503820034</v>
@@ -37802,7 +37604,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.592264934279963</v>
+        <v>1.566927621393014</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.565060614537743</v>
@@ -37891,7 +37693,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.591704549719574</v>
+        <v>1.568742143195253</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.741660296650099</v>
@@ -37980,7 +37782,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.599023923003778</v>
+        <v>1.575208655181787</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.611653504539136</v>
@@ -38069,7 +37871,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.588336412141397</v>
+        <v>1.563952345640702</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.737272604830463</v>
@@ -38158,7 +37960,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.586202952728972</v>
+        <v>1.562750362059729</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.762917966241139</v>
@@ -38247,7 +38049,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.612843255065007</v>
+        <v>1.589446891850811</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.664764815421878</v>
@@ -38336,7 +38138,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.600543210302813</v>
+        <v>1.577254778098365</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.518033196195774</v>
@@ -38425,7 +38227,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.609216959350764</v>
+        <v>1.584628526640744</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.474809425718516</v>
@@ -38514,7 +38316,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.630034103838202</v>
+        <v>1.605150458108745</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.504293750715222</v>
@@ -38603,7 +38405,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.619424821833942</v>
+        <v>1.592328718141278</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.683796229607444</v>
@@ -38692,7 +38494,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.612066257276747</v>
+        <v>1.588409436335031</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.444758234734365</v>
@@ -38781,7 +38583,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.651554480741249</v>
+        <v>1.61753737646181</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.774547663259934</v>
@@ -38870,7 +38672,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.654216446055526</v>
+        <v>1.610451129158512</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.814372157335972</v>
@@ -38959,7 +38761,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.644641076623419</v>
+        <v>1.606787245351449</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.780363484216573</v>
@@ -39048,7 +38850,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.637457744934402</v>
+        <v>1.603883600701099</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.748075683215412</v>
@@ -39137,7 +38939,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.649546783735674</v>
+        <v>1.616226085527939</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.730857837882873</v>
@@ -39226,7 +39028,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.638929096003976</v>
+        <v>1.607954565382122</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.720300429490969</v>
@@ -39315,7 +39117,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.641795875872195</v>
+        <v>1.610726908768622</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.668818743220367</v>
@@ -39404,7 +39206,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.643047082645212</v>
+        <v>1.614945571883053</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.005729866206864</v>
@@ -39493,7 +39295,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.641372363184325</v>
+        <v>1.61382671389536</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.941765490430883</v>
@@ -39582,7 +39384,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.645594206722528</v>
+        <v>1.620332304480266</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.811991419573306</v>
@@ -39671,7 +39473,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.638871431599598</v>
+        <v>1.616222281703823</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.719619180271529</v>
@@ -39760,7 +39562,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.633620062785837</v>
+        <v>1.614554190639669</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.214664632046803</v>
@@ -39849,7 +39651,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.624565477004958</v>
+        <v>1.604010788573351</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.975988281618077</v>
@@ -39938,7 +39740,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.636038472706508</v>
+        <v>1.615505068218179</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.106447609201043</v>
@@ -40027,7 +39829,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.626004212178763</v>
+        <v>1.607508134507696</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.291117311379856</v>
@@ -40116,7 +39918,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.624409530899475</v>
+        <v>1.608287337132269</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.258941338295846</v>
@@ -40205,7 +40007,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.629492353262496</v>
+        <v>1.622065954324785</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.036299554685083</v>
@@ -40294,7 +40096,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.645955793593731</v>
+        <v>1.637350458938435</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.451637206211771</v>
@@ -40383,7 +40185,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.641316040831549</v>
+        <v>1.632182023227914</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.313464661168476</v>
@@ -40472,7 +40274,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.640893069714963</v>
+        <v>1.631803364889839</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.246039271703038</v>
@@ -40561,7 +40363,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.631658014510442</v>
+        <v>1.63019440108869</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.717861242612393</v>
@@ -40650,7 +40452,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.592804384016919</v>
+        <v>1.597887791763976</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.644711735868338</v>
@@ -40739,7 +40541,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.601604166137959</v>
+        <v>1.605659643541443</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.608872834765728</v>
@@ -40828,7 +40630,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.606337422188092</v>
+        <v>1.612538466646401</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.527130942393066</v>
@@ -40917,7 +40719,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.610890781941369</v>
+        <v>1.613478665130077</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.511625870093516</v>
@@ -41006,7 +40808,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.602311015070826</v>
+        <v>1.601827281750818</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.553809901956219</v>
@@ -41095,7 +40897,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.597000460728208</v>
+        <v>1.59834042264149</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.536229600904365</v>
@@ -41184,7 +40986,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.604848533569725</v>
+        <v>1.60482919776862</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.594479861189184</v>
@@ -41273,7 +41075,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.59533777910433</v>
+        <v>1.595233781797225</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.61886011984918</v>
@@ -41362,7 +41164,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.606620655460015</v>
+        <v>1.605079251733819</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.450916276116106</v>
@@ -41451,7 +41253,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.609736913444164</v>
+        <v>1.603198519727421</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.436070846533639</v>
@@ -41540,7 +41342,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.588387070910805</v>
+        <v>1.583775223649402</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.527489628343422</v>
@@ -41629,7 +41431,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.551864661569827</v>
+        <v>1.552064776071127</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.547875336940882</v>
@@ -41718,7 +41520,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.559641386849216</v>
+        <v>1.553561357116435</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.594208478040165</v>
@@ -41807,7 +41609,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.561499540870426</v>
+        <v>1.554170785329488</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.519512820740526</v>
@@ -41896,7 +41698,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.586427485071805</v>
+        <v>1.567938115030905</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.188892786656346</v>
@@ -41985,7 +41787,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.607266724403461</v>
+        <v>1.590871780413922</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.500592104948487</v>
@@ -42074,7 +41876,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.609976722638216</v>
+        <v>1.590477179909876</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.690012127432437</v>
@@ -42163,7 +41965,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.614178428621688</v>
+        <v>1.595816268376514</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.536785917546565</v>
@@ -42252,7 +42054,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.626317675506021</v>
+        <v>1.605835360464392</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.74890781151255</v>
@@ -42341,7 +42143,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.63980347176988</v>
+        <v>1.616958700538691</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.790223431047168</v>
@@ -42430,7 +42232,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.639037991462132</v>
+        <v>1.617302397892663</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.727567153153277</v>
@@ -42519,7 +42321,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.638336711588002</v>
+        <v>1.623988095352157</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.493696874622455</v>
@@ -42608,7 +42410,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.63746743598759</v>
+        <v>1.626467871751613</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.768264270692422</v>
@@ -42697,7 +42499,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.63353774126181</v>
+        <v>1.618396585286091</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.745986835228154</v>
@@ -42786,7 +42588,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.635208336895848</v>
+        <v>1.620458769098881</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.782984024830242</v>
@@ -42875,7 +42677,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.639769917161116</v>
+        <v>1.62745235414094</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.548932631205226</v>
@@ -43161,7 +42963,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.356769542265566</v>
+        <v>1.340279207824074</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.431626950156265</v>
@@ -43250,7 +43052,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.374350484918088</v>
+        <v>1.367490921103625</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.307841598405461</v>
@@ -43339,7 +43141,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.373888802367931</v>
+        <v>1.367701712220609</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.540417138934936</v>
@@ -43428,7 +43230,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.367366284196254</v>
+        <v>1.364408178372024</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.592273446574349</v>
@@ -43517,7 +43319,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.367188033288767</v>
+        <v>1.366201502009746</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.600880864955094</v>
@@ -43606,7 +43408,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.36516719414454</v>
+        <v>1.363730245990989</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.309406813726852</v>
@@ -43695,7 +43497,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.380998677195484</v>
+        <v>1.387075218731675</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.343336461777783</v>
@@ -43784,7 +43586,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.39811707209295</v>
+        <v>1.403998755176685</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.610995625185744</v>
@@ -43873,7 +43675,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.399936907584271</v>
+        <v>1.40814143563604</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.503945619438678</v>
@@ -43962,7 +43764,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.403709919237026</v>
+        <v>1.412205287409107</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.419402670623532</v>
@@ -44051,7 +43853,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.405646333954407</v>
+        <v>1.408046349141813</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.716835673821568</v>
@@ -44140,7 +43942,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.392312334540943</v>
+        <v>1.397183945147775</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.542907898105399</v>
@@ -44229,7 +44031,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.402158823374995</v>
+        <v>1.408508131167999</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.414262352986198</v>
@@ -44318,7 +44120,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.408696792478394</v>
+        <v>1.409312571904196</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.727845833194941</v>
@@ -44407,7 +44209,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.394156962244583</v>
+        <v>1.394328437212826</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.651037654765299</v>
@@ -44496,7 +44298,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.392805382056368</v>
+        <v>1.386313839613408</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.697432975943991</v>
@@ -44585,7 +44387,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.382717919958137</v>
+        <v>1.372277256608855</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.470513102724932</v>
@@ -44674,7 +44476,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.389764842250856</v>
+        <v>1.383509384065704</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.740926042524242</v>
@@ -44763,7 +44565,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.394957671881457</v>
+        <v>1.389147192591176</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.520649869876215</v>
@@ -44852,7 +44654,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.396328151437505</v>
+        <v>1.388229805189541</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.470663933949563</v>
@@ -44941,7 +44743,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.390032756305081</v>
+        <v>1.385702690077905</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.648452243058615</v>
@@ -45030,7 +44832,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.376129129923748</v>
+        <v>1.365536988049207</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.651160400967496</v>
@@ -45119,7 +44921,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.363482789724852</v>
+        <v>1.348779704771805</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.546079588932642</v>
@@ -45208,7 +45010,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.36499149596513</v>
+        <v>1.350432284509399</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.575846949420686</v>
@@ -45297,7 +45099,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.367471772118052</v>
+        <v>1.355322037408922</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.813504647943752</v>
@@ -45386,7 +45188,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.368015293405513</v>
+        <v>1.359437903038163</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.602356168406531</v>
@@ -45475,7 +45277,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.370483263723961</v>
+        <v>1.362897834508788</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.823648439339744</v>
@@ -45564,7 +45366,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.367876783051816</v>
+        <v>1.356506358083812</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.958376043540428</v>
@@ -45653,7 +45455,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.364299601075279</v>
+        <v>1.357265034570131</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.625779480158382</v>
@@ -45742,7 +45544,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.376809367197636</v>
+        <v>1.374825749706169</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.822572917695084</v>
@@ -45831,7 +45633,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.375488201312739</v>
+        <v>1.376967838528339</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.687169285001509</v>
@@ -45920,7 +45722,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.380913642556434</v>
+        <v>1.386362904864764</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.805657671765859</v>
@@ -46009,7 +45811,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.375472154884711</v>
+        <v>1.380417494611445</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.813720795539628</v>
@@ -46098,7 +45900,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.369205341723805</v>
+        <v>1.37526381937197</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.861894926526176</v>
@@ -46187,7 +45989,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.371211333524635</v>
+        <v>1.376737268241798</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.910236614320713</v>
@@ -46276,7 +46078,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.374803815623722</v>
+        <v>1.37906128752068</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.726291889205664</v>
@@ -46365,7 +46167,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.387747649228676</v>
+        <v>1.401910510401475</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.800992323944786</v>
@@ -46454,7 +46256,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.414706389194807</v>
+        <v>1.430639232880635</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.87063249590264</v>
@@ -46543,7 +46345,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.413016070796436</v>
+        <v>1.427653037971162</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.850208642296521</v>
@@ -46632,7 +46434,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.417279537694305</v>
+        <v>1.430845023096594</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.634902299911047</v>
@@ -46721,7 +46523,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.427478952970953</v>
+        <v>1.443994575999526</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.828789566289357</v>
@@ -46810,7 +46612,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.428736028616533</v>
+        <v>1.445763078611693</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.943956440374175</v>
@@ -46899,7 +46701,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.441487941293271</v>
+        <v>1.460158828341533</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.748601307567044</v>
@@ -46988,7 +46790,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.438285894608053</v>
+        <v>1.450936857119681</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.15380281532916</v>
@@ -47077,7 +46879,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.432690618627849</v>
+        <v>1.443391318015798</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.73776529828822</v>
@@ -47166,7 +46968,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.444721932573199</v>
+        <v>1.454737761066504</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.746822939370145</v>
@@ -47255,7 +47057,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.442663202887486</v>
+        <v>1.453945865995086</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.076333896290725</v>
@@ -47344,7 +47146,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.456610690954194</v>
+        <v>1.467114783224682</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.046797722217365</v>
@@ -47433,7 +47235,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.453712730880369</v>
+        <v>1.462152423438675</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.184025360607527</v>
@@ -47522,7 +47324,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.449512044642778</v>
+        <v>1.458262449447219</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.909961148632699</v>
@@ -47611,7 +47413,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.454152454013656</v>
+        <v>1.461716511562989</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.014944108753119</v>
@@ -47700,7 +47502,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.446673504482696</v>
+        <v>1.453306409624052</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.121897189175224</v>
@@ -47789,7 +47591,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.436117324153939</v>
+        <v>1.440140977979234</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.942539475157413</v>
@@ -47878,7 +47680,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.445273616896156</v>
+        <v>1.454390219785274</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.06769818130669</v>
@@ -47967,7 +47769,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.440386313451329</v>
+        <v>1.447423601121693</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.947153145734906</v>
@@ -48056,7 +47858,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.444632013972502</v>
+        <v>1.450184131964741</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.159516638910191</v>
@@ -48145,7 +47947,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.441070262014835</v>
+        <v>1.447026446795437</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.973380149908152</v>
@@ -48234,7 +48036,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.440877838498696</v>
+        <v>1.446558218331927</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.020055515402554</v>
@@ -48323,7 +48125,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.457733241194725</v>
+        <v>1.468076388250013</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.151829461180977</v>
@@ -48412,7 +48214,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.475751802630701</v>
+        <v>1.49227146696896</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.002776035666495</v>
@@ -48501,7 +48303,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.486742631195186</v>
+        <v>1.503027130832004</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.820378579565211</v>
@@ -48590,7 +48392,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.465990023720769</v>
+        <v>1.483409133259224</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.913997665166925</v>
@@ -48679,7 +48481,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.454379567655948</v>
+        <v>1.473266018368098</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.830584616863661</v>
@@ -48768,7 +48570,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.462800493179484</v>
+        <v>1.478305510397104</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.45015919032104</v>
@@ -48857,7 +48659,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.471409201970051</v>
+        <v>1.487946248741354</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.570348212971266</v>
@@ -48946,7 +48748,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.490577500808987</v>
+        <v>1.512542901330065</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.707351228965423</v>
@@ -49035,7 +48837,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.501597906392389</v>
+        <v>1.524809334547007</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.685952194586188</v>
@@ -49124,7 +48926,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.50335307087273</v>
+        <v>1.525854551311082</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.979539719958319</v>
@@ -49213,7 +49015,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.49606589988756</v>
+        <v>1.517863286969065</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.079141785735556</v>
@@ -49302,7 +49104,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.505743447585128</v>
+        <v>1.527629142015234</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.053487593755889</v>
@@ -49391,7 +49193,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.509952988406381</v>
+        <v>1.528390851987905</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.025056023452543</v>
@@ -49480,7 +49282,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.522930816478172</v>
+        <v>1.540874325808272</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.00387021517024</v>
@@ -49569,7 +49371,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.526713487075115</v>
+        <v>1.543394817596296</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.960744926514487</v>
@@ -49658,7 +49460,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.527754342343176</v>
+        <v>1.543146209264319</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.117572925282519</v>
@@ -49747,7 +49549,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.534346165184267</v>
+        <v>1.543994523003225</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.641403205970969</v>
@@ -49836,7 +49638,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.538033387412372</v>
+        <v>1.549905749221804</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.567326916263762</v>
